--- a/Data_defauts.xlsx
+++ b/Data_defauts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\DPT\DPT_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DC3CF0-0A20-4FFF-9557-9422D507805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C85D5-79F4-46E1-9956-26EFC6E17CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="3996" yWindow="984" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Défauts</t>
   </si>
@@ -63,12 +63,15 @@
   </si>
   <si>
     <t>Dimensions des billes ou des rouleaux _Exterieur</t>
+  </si>
+  <si>
+    <t>Défaut de poids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,6 +492,14 @@
         <v>4.6829999999999998</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>55.212000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
